--- a/Readme, licence, changelog/changelog.xlsx
+++ b/Readme, licence, changelog/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratisthasthapit/Documents/GitHub/The-Real-Chef/Readme, licence, changelog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07A074D-74E2-574C-98D5-F0625C417ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B6DA8-45B9-4A49-BD4C-A9117801B2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{E1E32965-B776-8E4B-BBDC-7C7E12DCFFD6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>23/05/2020</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t xml:space="preserve">Fix bug: while clicking on the username, user image the corresponding profile is opened. </t>
+  </si>
+  <si>
+    <t>Add comments</t>
+  </si>
+  <si>
+    <t>Added comments throughout the app</t>
+  </si>
+  <si>
+    <t>Add reference</t>
+  </si>
+  <si>
+    <t>Add references to the code</t>
   </si>
 </sst>
 </file>
@@ -668,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C022A7A-1307-7044-8302-1A6A13ECF67E}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,6 +1129,28 @@
         <v>69</v>
       </c>
     </row>
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>44141</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{20B64018-D289-7B4A-9A6D-15B3D0EA5223}"/>
